--- a/TestDataSheet/AutomationExcerciseWorkBook.xlsx
+++ b/TestDataSheet/AutomationExcerciseWorkBook.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SwarupGithubPractice\SeleniumFrameworkDesing\TestDataSheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EA44F3-7825-428C-ABA7-ADC0177033CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECFA684-1762-4679-8173-87816E9CDEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0C29D401-4555-4AA0-A95B-C6B59B1D93A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{0C29D401-4555-4AA0-A95B-C6B59B1D93A4}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
-    <sheet name="Candela EDI 850 Shipments Pre-V" sheetId="2" r:id="rId2"/>
-    <sheet name="Collections Delinquency Managem" sheetId="3" r:id="rId3"/>
+    <sheet name="SwarupOutputDataSheet" sheetId="4" r:id="rId2"/>
+    <sheet name="Candela EDI 850 Shipments Pre-V" sheetId="2" r:id="rId3"/>
+    <sheet name="Collections Delinquency Managem" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestData!$B$1:$B$6</definedName>
@@ -41,65 +42,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="95">
-  <si>
-    <t>EmailID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="97">
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Days</t>
-  </si>
-  <si>
-    <t>Month</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Addressline1</t>
-  </si>
-  <si>
-    <t>Addressline2</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Zipcode</t>
-  </si>
-  <si>
-    <t>MobileNumber</t>
-  </si>
-  <si>
-    <t>Name On Card</t>
-  </si>
-  <si>
-    <t>CardNumber</t>
-  </si>
-  <si>
-    <t>CVC</t>
-  </si>
-  <si>
-    <t>ExpireMonth</t>
-  </si>
-  <si>
-    <t>ExpireYear</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -301,9 +248,6 @@
     <t>Include_User_Transaction_Identifier</t>
   </si>
   <si>
-    <t>3/13/24 10:40 AM</t>
-  </si>
-  <si>
     <t>TestCases05_Create Accounting</t>
   </si>
   <si>
@@ -326,6 +270,69 @@
   </si>
   <si>
     <t>Subledger Application</t>
+  </si>
+  <si>
+    <t>OutputDataWorkBook</t>
+  </si>
+  <si>
+    <t>OutputDataWorkSheet</t>
+  </si>
+  <si>
+    <t>SwarupOutputDataSheet</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>ProcessID</t>
+  </si>
+  <si>
+    <t>OutputParameter1</t>
+  </si>
+  <si>
+    <t>3/24/24 10:40 AM</t>
+  </si>
+  <si>
+    <t>OutputParameter2</t>
+  </si>
+  <si>
+    <t>C:\SwarupGithubPractice\SeleniumFrameworkDesing\TestDataSheet\AutomationExcerciseWorkBook.xlsx</t>
+  </si>
+  <si>
+    <t>InputDataWorkBook</t>
+  </si>
+  <si>
+    <t>InputWorkSheet</t>
+  </si>
+  <si>
+    <t>InputTestCaseName</t>
+  </si>
+  <si>
+    <t>TestCase06_SearchBasedOnProcessId</t>
+  </si>
+  <si>
+    <t>InputParameter1</t>
+  </si>
+  <si>
+    <t>SubmitionTime</t>
+  </si>
+  <si>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>InputParameter2</t>
+  </si>
+  <si>
+    <t>31273246</t>
+  </si>
+  <si>
+    <t>31273248</t>
+  </si>
+  <si>
+    <t>31273251</t>
+  </si>
+  <si>
+    <t>31273253</t>
   </si>
 </sst>
 </file>
@@ -427,7 +434,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -436,6 +443,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -752,10 +760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063631D6-9D8A-44C8-B7F7-27F862A2BFC8}">
-  <dimension ref="A1:AX6"/>
+  <dimension ref="A1:AM7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="AH1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="AJ21" sqref="AJ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -764,199 +772,161 @@
     <col min="2" max="3" width="31.77734375" style="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="51.6640625" style="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="36.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.21875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.77734375" style="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="24" width="41.88671875" style="1" customWidth="1"/>
-    <col min="25" max="26" width="41.88671875" style="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="30" width="41.88671875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="4.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="6.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="5" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="9" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="8.88671875" style="1" collapsed="1"/>
-    <col min="36" max="36" width="8.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="11.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="13.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="5.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="6.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="7.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="42" width="13.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="12.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="25.33203125" style="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="4.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="11.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="9.6640625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="50" width="8.88671875" style="1"/>
-    <col min="51" max="16384" width="8.88671875" style="1" collapsed="1"/>
+    <col min="6" max="6" width="19.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="44" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="30" width="41.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="92.88671875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="41.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="57.77734375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="35" width="41.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="96" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="22.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="39" width="17.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="16384" width="8.88671875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AG1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AK1" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AL1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM1" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AO1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="AP1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AQ1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -972,66 +942,66 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
+      <c r="X2" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="Y2" s="2" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2"/>
-      <c r="AP2" s="2"/>
-      <c r="AQ2" s="2"/>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-    </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AJ2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1045,64 +1015,64 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="V3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="2"/>
       <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="Y3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+      <c r="AB3" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AC3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="AD3" s="2"/>
       <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2"/>
-    </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AJ3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1116,203 +1086,203 @@
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
+      <c r="V4" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="W4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
+      <c r="AB4" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AC4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
       <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-    </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AJ4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G5" s="2" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="K5" s="2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>79</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
+      <c r="Q5" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="R5" s="2" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="V5" s="2"/>
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="Y5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
+      <c r="AB5" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AC5" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD5" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="AD5" s="2"/>
       <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="2"/>
-      <c r="AM5" s="2"/>
-      <c r="AN5" s="2"/>
-      <c r="AO5" s="2"/>
-      <c r="AP5" s="2"/>
-      <c r="AQ5" s="2"/>
-      <c r="AR5" s="2"/>
-      <c r="AS5" s="2"/>
-      <c r="AT5" s="2"/>
-      <c r="AU5" s="2"/>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AJ5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AM5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="L6" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="P6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>70</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
+      <c r="S6" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="T6" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="Y6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
+      <c r="AB6" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="AC6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
       <c r="AG6" s="2"/>
@@ -1322,14 +1292,71 @@
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
-      <c r="AP6" s="2"/>
-      <c r="AQ6" s="2"/>
-      <c r="AR6" s="2"/>
-      <c r="AS6" s="2"/>
-      <c r="AT6" s="2"/>
-      <c r="AU6" s="2"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AF7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="B1:B6" xr:uid="{063631D6-9D8A-44C8-B7F7-27F862A2BFC8}"/>
@@ -1343,95 +1370,88 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C15268-0E69-42A5-AACB-3B2D4AE8CE4A}">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16A1B94-A114-4D8F-BD09-33DB6E836536}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" customWidth="1"/>
+    <col min="1" max="1" width="55.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="41.88671875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="48" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="36" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>57</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1439,6 +1459,102 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9C15268-0E69-42A5-AACB-3B2D4AE8CE4A}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="45.44140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="48" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="36" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503CC36F-51DD-409A-BFC3-14D0934BBF6A}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1448,23 +1564,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
